--- a/biology/Médecine/Chromosome_21_humain/Chromosome_21_humain.xlsx
+++ b/biology/Médecine/Chromosome_21_humain/Chromosome_21_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chromosome 21 est le plus petit des 23 paires de chromosomes humains. C'est un des 22 autosomes et l'un des cinq chromosomes acrocentriques.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques du chromosome 21</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de paires de base : 46 944 323
 Nombre de gènes : 271
@@ -545,7 +559,9 @@
           <t>Maladies chromosomiques décrites du chromosome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La trisomie 21 (présence de trois chromosomes 21 au lieu de deux) est l'anomalie chromosomique la plus connue et la plus fréquente, responsable du syndrome de Down.</t>
         </is>
@@ -575,7 +591,9 @@
           <t>Gènes localisés sur le chromosome 21</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>gène SOD1 qui code la superoxide dismutase [Cu-Zn]</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Maladies localisées sur le chromosome 21</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La nomenclature utilisée pour localiser un gène est décrite dans l'article de celui-ci
 Les maladies en rapport avec des anomalies génétiques localisées sur le chromosome 21 sont :</t>
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
